--- a/Test/Lawnmower/T2/Sensors_data_1000002.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000002.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9314433910642494</v>
+        <v>0.9820648338160125</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002430550993144308</v>
+        <v>0.0006228150410809575</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002329482124848625</v>
+        <v>0.3290615097201239</v>
       </c>
       <c r="F2" t="n">
         <v>4</v>
@@ -500,43 +500,18 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9728138713456396</v>
+        <v>0.2643351454267093</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0009440631695854892</v>
+        <v>0.04338326267925233</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3329728660154571</v>
+        <v>0.4761111291913647</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>s3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9836283264372415</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0009654622077659202</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.08497375841009525</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G4" t="n">
         <v>0</v>
       </c>
     </row>
